--- a/leetcode_questions.xlsx
+++ b/leetcode_questions.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24123"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4424FF32-04CF-4E38-A422-7E2F19E76BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDBDB040-F372-4BD9-AD51-78EE8F367357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -122,6 +122,90 @@
   </si>
   <si>
     <t>generate_balanced_parenthesis.cpp</t>
+  </si>
+  <si>
+    <t>Maximum subarray</t>
+  </si>
+  <si>
+    <t>maximum_contiguous_subarray_sum.cpp</t>
+  </si>
+  <si>
+    <t>Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>binary_tree_inorder_traversal.cpp</t>
+  </si>
+  <si>
+    <t>with recursion</t>
+  </si>
+  <si>
+    <t>climbing_stairs</t>
+  </si>
+  <si>
+    <t>climbing_stairs.cpp</t>
+  </si>
+  <si>
+    <t>single_number</t>
+  </si>
+  <si>
+    <t>al_number_twice_one_single.cpp</t>
+  </si>
+  <si>
+    <t>Find First and Last Position of Element in Sorted Array</t>
+  </si>
+  <si>
+    <t>find_boundaries_using_binary_search.cpp</t>
+  </si>
+  <si>
+    <t>without recursion</t>
+  </si>
+  <si>
+    <t>O(logn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>rotated_array_sorted.cpp</t>
+  </si>
+  <si>
+    <t>o(logn)</t>
+  </si>
+  <si>
+    <t>Combination Sum</t>
+  </si>
+  <si>
+    <t>coin_change_problem_with_backtracking.cpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use backtracking </t>
+  </si>
+  <si>
+    <t>majority element</t>
+  </si>
+  <si>
+    <t>majority_element.cpp</t>
+  </si>
+  <si>
+    <t>first sort the array and then return the center element</t>
+  </si>
+  <si>
+    <t>O(nlogn)</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>reverse_linked_list.cpp</t>
+  </si>
+  <si>
+    <t>Intersection of two linked list</t>
+  </si>
+  <si>
+    <t>intersection_of_linked_list.cpp</t>
+  </si>
+  <si>
+    <t>do consider making ptr1!=ptr2 instead of ptr1-&gt;next!=ptr2-&gt;next</t>
   </si>
 </sst>
 </file>
@@ -474,18 +558,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" customWidth="1"/>
-    <col min="4" max="4" width="52.7109375" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="59.28515625" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" customWidth="1"/>
   </cols>
@@ -629,6 +713,155 @@
         <v>31</v>
       </c>
     </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>44334</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>44337</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>44338</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>44339</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>44341</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>44342</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>44343</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>44345</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
